--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H2">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>11058.19937553958</v>
+        <v>21641.587584015</v>
       </c>
       <c r="R2">
-        <v>11058.19937553958</v>
+        <v>194774.288256135</v>
       </c>
       <c r="S2">
-        <v>0.07387463182524395</v>
+        <v>0.102697311196032</v>
       </c>
       <c r="T2">
-        <v>0.07387463182524395</v>
+        <v>0.1026973111960321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H3">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>21939.52242199566</v>
+        <v>33248.05126545989</v>
       </c>
       <c r="R3">
-        <v>21939.52242199566</v>
+        <v>299232.461389139</v>
       </c>
       <c r="S3">
-        <v>0.146567636041336</v>
+        <v>0.1577742600544048</v>
       </c>
       <c r="T3">
-        <v>0.146567636041336</v>
+        <v>0.1577742600544049</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H4">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>10299.70638050532</v>
+        <v>16613.81876216633</v>
       </c>
       <c r="R4">
-        <v>10299.70638050532</v>
+        <v>149524.368859497</v>
       </c>
       <c r="S4">
-        <v>0.06880749667536351</v>
+        <v>0.07883869466364421</v>
       </c>
       <c r="T4">
-        <v>0.06880749667536351</v>
+        <v>0.07883869466364422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H5">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>11560.55360526027</v>
+        <v>17437.96565133793</v>
       </c>
       <c r="R5">
-        <v>11560.55360526027</v>
+        <v>156941.6908620413</v>
       </c>
       <c r="S5">
-        <v>0.07723062428895006</v>
+        <v>0.08274957547217657</v>
       </c>
       <c r="T5">
-        <v>0.07723062428895006</v>
+        <v>0.0827495754721766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H6">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>8632.843874946117</v>
+        <v>13283.3182365455</v>
       </c>
       <c r="R6">
-        <v>8632.843874946117</v>
+        <v>119549.8641289095</v>
       </c>
       <c r="S6">
-        <v>0.05767197182907892</v>
+        <v>0.06303424189000086</v>
       </c>
       <c r="T6">
-        <v>0.05767197182907892</v>
+        <v>0.06303424189000087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H7">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I7">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J7">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>16315.46236288841</v>
+        <v>26443.84530600833</v>
       </c>
       <c r="R7">
-        <v>16315.46236288841</v>
+        <v>237994.607754075</v>
       </c>
       <c r="S7">
-        <v>0.1089959345264738</v>
+        <v>0.125485794425579</v>
       </c>
       <c r="T7">
-        <v>0.1089959345264738</v>
+        <v>0.125485794425579</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>4037.597372804094</v>
+        <v>5371.380160827617</v>
       </c>
       <c r="R8">
-        <v>4037.597372804094</v>
+        <v>48342.42144744856</v>
       </c>
       <c r="S8">
-        <v>0.02697329006693918</v>
+        <v>0.0254891790071885</v>
       </c>
       <c r="T8">
-        <v>0.02697329006693918</v>
+        <v>0.02548917900718851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>8010.613218601317</v>
+        <v>8252.071261416151</v>
       </c>
       <c r="R9">
-        <v>8010.613218601317</v>
+        <v>74268.64135274537</v>
       </c>
       <c r="S9">
-        <v>0.05351514131022161</v>
+        <v>0.03915912023808484</v>
       </c>
       <c r="T9">
-        <v>0.05351514131022161</v>
+        <v>0.03915912023808485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>3760.654516192667</v>
+        <v>4123.502314617625</v>
       </c>
       <c r="R10">
-        <v>3760.654516192667</v>
+        <v>37111.52083155862</v>
       </c>
       <c r="S10">
-        <v>0.02512316502632403</v>
+        <v>0.01956753860029344</v>
       </c>
       <c r="T10">
-        <v>0.02512316502632403</v>
+        <v>0.01956753860029344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>4221.018203741892</v>
+        <v>4328.053216113124</v>
       </c>
       <c r="R11">
-        <v>4221.018203741892</v>
+        <v>38952.47894501812</v>
       </c>
       <c r="S11">
-        <v>0.02819863841656133</v>
+        <v>0.02053820803499925</v>
       </c>
       <c r="T11">
-        <v>0.02819863841656133</v>
+        <v>0.02053820803499926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J12">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>3152.045515331431</v>
+        <v>3296.88160670989</v>
       </c>
       <c r="R12">
-        <v>3152.045515331431</v>
+        <v>29671.93446038901</v>
       </c>
       <c r="S12">
-        <v>0.02105733438452847</v>
+        <v>0.01564491860989181</v>
       </c>
       <c r="T12">
-        <v>0.02105733438452847</v>
+        <v>0.01564491860989181</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J13">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>5957.142364261989</v>
+        <v>6563.286796833788</v>
       </c>
       <c r="R13">
-        <v>5957.142364261989</v>
+        <v>59069.58117150409</v>
       </c>
       <c r="S13">
-        <v>0.03979686782134404</v>
+        <v>0.03114521538803855</v>
       </c>
       <c r="T13">
-        <v>0.03979686782134404</v>
+        <v>0.03114521538803855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H14">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>40.28246310897563</v>
+        <v>61.31894522302533</v>
       </c>
       <c r="R14">
-        <v>40.28246310897563</v>
+        <v>551.870507007228</v>
       </c>
       <c r="S14">
-        <v>0.0002691082001805869</v>
+        <v>0.0002909810001384929</v>
       </c>
       <c r="T14">
-        <v>0.0002691082001805869</v>
+        <v>0.000290981000138493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H15">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>79.92060665387129</v>
+        <v>94.20452295398754</v>
       </c>
       <c r="R15">
-        <v>79.92060665387129</v>
+        <v>847.8407065858879</v>
       </c>
       <c r="S15">
-        <v>0.0005339120042332204</v>
+        <v>0.0004470351896468658</v>
       </c>
       <c r="T15">
-        <v>0.0005339120042332204</v>
+        <v>0.000447035189646866</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H16">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>37.519448530086</v>
+        <v>47.07334148512355</v>
       </c>
       <c r="R16">
-        <v>37.519448530086</v>
+        <v>423.660073366112</v>
       </c>
       <c r="S16">
-        <v>0.0002506497986080169</v>
+        <v>0.0002233803588007358</v>
       </c>
       <c r="T16">
-        <v>0.0002506497986080169</v>
+        <v>0.0002233803588007358</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H17">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I17">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J17">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>42.11242339809136</v>
+        <v>49.40846675061778</v>
       </c>
       <c r="R17">
-        <v>42.11242339809136</v>
+        <v>444.67620075556</v>
       </c>
       <c r="S17">
-        <v>0.0002813333046503321</v>
+        <v>0.0002344613890228118</v>
       </c>
       <c r="T17">
-        <v>0.0002813333046503321</v>
+        <v>0.0002344613890228119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H18">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I18">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J18">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>31.44745388542018</v>
+        <v>37.63675193257865</v>
       </c>
       <c r="R18">
-        <v>31.44745388542018</v>
+        <v>338.7307673932079</v>
       </c>
       <c r="S18">
-        <v>0.0002100856566906848</v>
+        <v>0.0001786002626019367</v>
       </c>
       <c r="T18">
-        <v>0.0002100856566906848</v>
+        <v>0.0001786002626019367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H19">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I19">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J19">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>59.43345642625145</v>
+        <v>74.92558923925554</v>
       </c>
       <c r="R19">
-        <v>59.43345642625145</v>
+        <v>674.3303031532998</v>
       </c>
       <c r="S19">
-        <v>0.0003970469840960674</v>
+        <v>0.0003555495420462294</v>
       </c>
       <c r="T19">
-        <v>0.0003970469840960674</v>
+        <v>0.0003555495420462294</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H20">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I20">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J20">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>45.24954209489027</v>
+        <v>70.79172553434934</v>
       </c>
       <c r="R20">
-        <v>45.24954209489027</v>
+        <v>637.1255298091442</v>
       </c>
       <c r="S20">
-        <v>0.0003022909199769956</v>
+        <v>0.0003359328348293194</v>
       </c>
       <c r="T20">
-        <v>0.0003022909199769956</v>
+        <v>0.0003359328348293197</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H21">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I21">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J21">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>89.77531600414291</v>
+        <v>108.7575904770916</v>
       </c>
       <c r="R21">
-        <v>89.77531600414291</v>
+        <v>978.8183142938241</v>
       </c>
       <c r="S21">
-        <v>0.000599746684932363</v>
+        <v>0.00051609485999106</v>
       </c>
       <c r="T21">
-        <v>0.000599746684932363</v>
+        <v>0.0005160948599910603</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H22">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I22">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J22">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>42.14583058256212</v>
+        <v>54.34540757801956</v>
       </c>
       <c r="R22">
-        <v>42.14583058256212</v>
+        <v>489.108668202176</v>
       </c>
       <c r="S22">
-        <v>0.0002815564823458396</v>
+        <v>0.0002578889932380667</v>
       </c>
       <c r="T22">
-        <v>0.0002815564823458396</v>
+        <v>0.0002578889932380668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H23">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I23">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J23">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>47.30514790306314</v>
+        <v>57.04127174009778</v>
       </c>
       <c r="R23">
-        <v>47.30514790306314</v>
+        <v>513.3714456608801</v>
       </c>
       <c r="S23">
-        <v>0.0003160234560888428</v>
+        <v>0.0002706818625098049</v>
       </c>
       <c r="T23">
-        <v>0.0003160234560888428</v>
+        <v>0.0002706818625098051</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H24">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I24">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J24">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>35.32512112071856</v>
+        <v>43.45101832924266</v>
       </c>
       <c r="R24">
-        <v>35.32512112071856</v>
+        <v>391.059164963184</v>
       </c>
       <c r="S24">
-        <v>0.0002359905286883921</v>
+        <v>0.0002061911000669235</v>
       </c>
       <c r="T24">
-        <v>0.0002359905286883921</v>
+        <v>0.0002061911000669236</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H25">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I25">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J25">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>66.76197235330579</v>
+        <v>86.50037487815555</v>
       </c>
       <c r="R25">
-        <v>66.76197235330579</v>
+        <v>778.5033739034</v>
       </c>
       <c r="S25">
-        <v>0.0004460053540395609</v>
+        <v>0.0004104761669147061</v>
       </c>
       <c r="T25">
-        <v>0.0004460053540395609</v>
+        <v>0.0004104761669147063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H26">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>54.24716192812112</v>
+        <v>76.04926207090867</v>
       </c>
       <c r="R26">
-        <v>54.24716192812112</v>
+        <v>684.4433586381781</v>
       </c>
       <c r="S26">
-        <v>0.0003623997885106675</v>
+        <v>0.0003608817838712258</v>
       </c>
       <c r="T26">
-        <v>0.0003623997885106675</v>
+        <v>0.0003608817838712259</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H27">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I27">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J27">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>107.6266383914397</v>
+        <v>116.8347633563431</v>
       </c>
       <c r="R27">
-        <v>107.6266383914397</v>
+        <v>1051.512870207088</v>
       </c>
       <c r="S27">
-        <v>0.0007190029783097771</v>
+        <v>0.0005544240229299812</v>
       </c>
       <c r="T27">
-        <v>0.0007190029783097771</v>
+        <v>0.0005544240229299815</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H28">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I28">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J28">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>50.52629463990935</v>
+        <v>58.38151439387911</v>
       </c>
       <c r="R28">
-        <v>50.52629463990935</v>
+        <v>525.433629544912</v>
       </c>
       <c r="S28">
-        <v>0.0003375424232514319</v>
+        <v>0.0002770418079786504</v>
       </c>
       <c r="T28">
-        <v>0.0003375424232514319</v>
+        <v>0.0002770418079786505</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H29">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I29">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J29">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>56.71151352095044</v>
+        <v>61.27759410689556</v>
       </c>
       <c r="R29">
-        <v>56.71151352095044</v>
+        <v>551.4983469620601</v>
       </c>
       <c r="S29">
-        <v>0.0003788629630679029</v>
+        <v>0.0002907847738484855</v>
       </c>
       <c r="T29">
-        <v>0.0003788629630679029</v>
+        <v>0.0002907847738484856</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H30">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I30">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J30">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>42.34932502847371</v>
+        <v>46.67802423554533</v>
       </c>
       <c r="R30">
-        <v>42.34932502847371</v>
+        <v>420.102218119908</v>
       </c>
       <c r="S30">
-        <v>0.0002829159330809614</v>
+        <v>0.0002215044327189043</v>
       </c>
       <c r="T30">
-        <v>0.0002829159330809614</v>
+        <v>0.0002215044327189044</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H31">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I31">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J31">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>80.03721932248003</v>
+        <v>92.9245562060611</v>
       </c>
       <c r="R31">
-        <v>80.03721932248003</v>
+        <v>836.32100585455</v>
       </c>
       <c r="S31">
-        <v>0.000534691038655288</v>
+        <v>0.0004409612755718437</v>
       </c>
       <c r="T31">
-        <v>0.000534691038655288</v>
+        <v>0.0004409612755718438</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H32">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I32">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J32">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>5505.744042552968</v>
+        <v>8223.190706144505</v>
       </c>
       <c r="R32">
-        <v>5505.744042552968</v>
+        <v>74008.71635530054</v>
       </c>
       <c r="S32">
-        <v>0.03678128782587484</v>
+        <v>0.03902207135658608</v>
       </c>
       <c r="T32">
-        <v>0.03678128782587484</v>
+        <v>0.0390220713565861</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H33">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I33">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J33">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>10923.42349501777</v>
+        <v>12633.3183784303</v>
       </c>
       <c r="R33">
-        <v>10923.42349501777</v>
+        <v>113699.8654058727</v>
       </c>
       <c r="S33">
-        <v>0.07297425752248944</v>
+        <v>0.05994975294264016</v>
       </c>
       <c r="T33">
-        <v>0.07297425752248944</v>
+        <v>0.05994975294264018</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H34">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I34">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J34">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>5128.099532184907</v>
+        <v>6312.780867311473</v>
       </c>
       <c r="R34">
-        <v>5128.099532184907</v>
+        <v>56815.02780580326</v>
       </c>
       <c r="S34">
-        <v>0.0342584223740206</v>
+        <v>0.02995647240415475</v>
       </c>
       <c r="T34">
-        <v>0.0342584223740206</v>
+        <v>0.02995647240415476</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H35">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I35">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J35">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>5755.860152202243</v>
+        <v>6625.933357313615</v>
       </c>
       <c r="R35">
-        <v>5755.860152202243</v>
+        <v>59633.40021582253</v>
       </c>
       <c r="S35">
-        <v>0.03845219598066663</v>
+        <v>0.03144249641199216</v>
       </c>
       <c r="T35">
-        <v>0.03845219598066663</v>
+        <v>0.03144249641199217</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H36">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I36">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J36">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>4298.188802772896</v>
+        <v>5047.284939031072</v>
       </c>
       <c r="R36">
-        <v>4298.188802772896</v>
+        <v>45425.56445127965</v>
       </c>
       <c r="S36">
-        <v>0.0287141789125809</v>
+        <v>0.02395122770297961</v>
       </c>
       <c r="T36">
-        <v>0.0287141789125809</v>
+        <v>0.02395122770297962</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H37">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I37">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J37">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>8123.271850629556</v>
+        <v>10047.91271023511</v>
       </c>
       <c r="R37">
-        <v>8123.271850629556</v>
+        <v>90431.214392116</v>
       </c>
       <c r="S37">
-        <v>0.05426776067259547</v>
+        <v>0.04768104994458738</v>
       </c>
       <c r="T37">
-        <v>0.05426776067259547</v>
+        <v>0.04768104994458738</v>
       </c>
     </row>
   </sheetData>
